--- a/BDD/Classeur1.xlsx
+++ b/BDD/Classeur1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Exercice1" sheetId="1" r:id="rId1"/>
     <sheet name="Exercice2" sheetId="2" r:id="rId2"/>
+    <sheet name="Soldat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="126">
   <si>
     <t>Code</t>
   </si>
@@ -316,6 +317,93 @@
   </si>
   <si>
     <t>Homme ou Femme</t>
+  </si>
+  <si>
+    <t>Entité</t>
+  </si>
+  <si>
+    <t>idSoldat</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>SOLDAT</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>nomSoldat</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>prenomSoldat</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>CodePostal</t>
+  </si>
+  <si>
+    <t>PAYS</t>
+  </si>
+  <si>
+    <t>dateDeces</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>si survenu aux combats</t>
+  </si>
+  <si>
+    <t>idbataille</t>
+  </si>
+  <si>
+    <t>BATAILLE</t>
+  </si>
+  <si>
+    <t>libelleBataille</t>
+  </si>
+  <si>
+    <t>lieuBataille</t>
+  </si>
+  <si>
+    <t>dateDebutBataille</t>
+  </si>
+  <si>
+    <t>dateFinBataille</t>
+  </si>
+  <si>
+    <t>TypeBlessure</t>
+  </si>
+  <si>
+    <t>idGrade</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>nomGrade</t>
+  </si>
+  <si>
+    <t>dateObtenue</t>
+  </si>
+  <si>
+    <t>idUnite</t>
+  </si>
+  <si>
+    <t>UNITÉ RATTACHEMENT</t>
+  </si>
+  <si>
+    <t>libelleUnite</t>
+  </si>
+  <si>
+    <t>dateRattachement</t>
   </si>
 </sst>
 </file>
@@ -339,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +446,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -371,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,12 +494,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -993,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,4 +1290,338 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>